--- a/data/trans_dic/P55_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros)</t>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>73,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>76,56%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>51,4%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>66,42%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67,39%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>48,17%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>70,14%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>49,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48,88%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,47; 78,05</t>
+          <t>68,66; 77,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,45; 55,13</t>
+          <t>71,86; 80,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60,89; 69,99</t>
+          <t>47,3; 55,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 52,15</t>
+          <t>49,87; 58,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,85; 73,1</t>
+          <t>63,46; 70,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 52,55</t>
+          <t>60,28; 68,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>44,61; 51,99</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40,52; 47,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67,44; 73,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>67,23; 73,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47,06; 52,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46,03; 51,2</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>71,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,73%</t>
+          <t>59,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47,73%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>68,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,74%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55,61%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,06; 76,57</t>
+          <t>65,8; 76,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,54; 70,16</t>
+          <t>68,89; 78,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,48; 69,83</t>
+          <t>57,08; 69,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,07; 54,35</t>
+          <t>53,57; 66,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,62; 72,14</t>
+          <t>61,59; 69,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,93; 60,75</t>
+          <t>54,1; 64,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41,0; 54,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43,25; 57,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65,44; 72,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,21; 70,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50,94; 61,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50,35; 60,16</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>72,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>71,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>65,09%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70,96%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>68,96%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>71,09%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,72; 81,63</t>
+          <t>59,52; 81,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>61,12; 79,67</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>57,28; 72,23</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,99; 74,28</t>
+          <t>56,53; 72,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61,51; 79,78</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>62,08; 74,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>64,14; 77,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>74,93%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>54,17%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>66,04%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>66,48%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>48,08%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>69,53%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>51,11%</t>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50,44%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,76; 75,96</t>
+          <t>69,21; 75,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,76; 57,45</t>
+          <t>71,48; 77,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,9; 68,63</t>
+          <t>50,66; 57,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,99; 51,31</t>
+          <t>52,17; 58,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,04; 71,62</t>
+          <t>63,62; 68,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,74; 53,43</t>
+          <t>60,03; 66,44</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44,72; 51,39</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41,98; 48,32</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>67,49; 71,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66,83; 71,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 53,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48,04; 52,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>502.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1072.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>747.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>738.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1170542</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1195313</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>113323</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>120398</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1167818</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1117685</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>109776</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>99187</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2338360</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2312998</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>223099</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>219585</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1088954; 1227696</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1121931; 1261133</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>104286; 121789</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>111111; 129327</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1099725; 1228309</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1044559; 1187432</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>101655; 118468</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>91766; 107752</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2238169; 2432247</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2214712; 2425758</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>210973; 235031</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>206818; 230048</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>403.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>774.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>926651</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>983155</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>43245</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43338</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>847267</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>782616</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29952</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32188</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1773917</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1765771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73197</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>75526</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>848772; 988191</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>913181; 1046321</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39138; 47742</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38546; 47854</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>793807; 901939</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>711010; 841911</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25728; 34056</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27625; 36642</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1687488; 1864769</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1668560; 1863648</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>66897; 80272</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68391; 81703</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>299013</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>294667</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>244814</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>278311</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>543827</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>572978</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>244558; 333104</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>252879; 329615</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>213510; 273788</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>241252; 312882</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>489551; 589857</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>516930; 621290</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>752.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2055.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1567.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>991.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>991.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2396206</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2473135</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>156568</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>163736</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2259900</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2178612</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>139728</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131375</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4656105</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4651746</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>296296</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>295112</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2274982; 2496519</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2359480; 2567675</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>146411; 166070</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153790; 173199</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2162617; 2337632</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2064408; 2284860</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>129963; 149354</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>121872; 140290</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4512616; 4784510</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4504315; 4795355</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>281821; 309830</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>281057; 308652</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
